--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DABFCD67-2CC2-429C-9F77-CE9C58AB42C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6FD7860-9003-4B3C-92B4-8F12E5572B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="141">
   <si>
     <t>ScreenName</t>
   </si>
@@ -219,6 +219,9 @@
     <t>FolioDocuments</t>
   </si>
   <si>
+    <t>FolioPromoteToCase</t>
+  </si>
+  <si>
     <t>LocationServicesOrg</t>
   </si>
   <si>
@@ -408,7 +411,7 @@
     <t>CaseSubmitForApproval</t>
   </si>
   <si>
-    <t>CaseApprovalAndAuditHistory</t>
+    <t>CaseApprovalHistory</t>
   </si>
   <si>
     <t>CaseRelatedFolios</t>
@@ -417,6 +420,21 @@
     <t>CaseFolioPersons</t>
   </si>
   <si>
+    <t>GenerateDocument</t>
+  </si>
+  <si>
+    <t>cares\Courts.xlsx</t>
+  </si>
+  <si>
+    <t>GeneratePetition</t>
+  </si>
+  <si>
+    <t>PetitionAllegations</t>
+  </si>
+  <si>
+    <t>FolioFamilyTransfer</t>
+  </si>
+  <si>
     <t>InitialScreening</t>
   </si>
   <si>
@@ -441,23 +459,17 @@
     <t>SauceConfirmation</t>
   </si>
   <si>
-    <t>GenerateDocument</t>
-  </si>
-  <si>
-    <t>GeneratePetition</t>
-  </si>
-  <si>
-    <t>cares\Courts.xlsx</t>
-  </si>
-  <si>
-    <t>PetitionAllegations</t>
+    <t>AuditHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ApprovalAuditHistory </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,6 +480,19 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -515,12 +540,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,10 +832,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E117"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1512,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>57</v>
       </c>
@@ -1525,8 +1554,9 @@
       <c r="D49" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>58</v>
       </c>
@@ -1539,22 +1569,23 @@
       <c r="D50" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="4" t="s">
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="B51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>60</v>
       </c>
@@ -1567,8 +1598,9 @@
       <c r="D52" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>61</v>
       </c>
@@ -1581,13 +1613,14 @@
       <c r="D53" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>62</v>
@@ -1595,27 +1628,29 @@
       <c r="D54" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D55" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>65</v>
@@ -1623,13 +1658,14 @@
       <c r="D56" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>66</v>
@@ -1637,13 +1673,14 @@
       <c r="D57" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>67</v>
@@ -1651,13 +1688,14 @@
       <c r="D58" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>68</v>
@@ -1665,13 +1703,14 @@
       <c r="D59" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>69</v>
@@ -1679,13 +1718,14 @@
       <c r="D60" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>70</v>
@@ -1693,13 +1733,14 @@
       <c r="D61" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>71</v>
@@ -1707,13 +1748,14 @@
       <c r="D62" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>72</v>
@@ -1721,13 +1763,14 @@
       <c r="D63" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>73</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>73</v>
@@ -1735,13 +1778,14 @@
       <c r="D64" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>74</v>
@@ -1749,13 +1793,14 @@
       <c r="D65" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>75</v>
@@ -1763,13 +1808,14 @@
       <c r="D66" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>76</v>
@@ -1777,13 +1823,14 @@
       <c r="D67" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>77</v>
@@ -1791,13 +1838,14 @@
       <c r="D68" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>78</v>
@@ -1805,13 +1853,14 @@
       <c r="D69" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>79</v>
@@ -1819,13 +1868,14 @@
       <c r="D70" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>80</v>
@@ -1833,13 +1883,14 @@
       <c r="D71" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>81</v>
@@ -1847,13 +1898,14 @@
       <c r="D72" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>82</v>
@@ -1861,13 +1913,14 @@
       <c r="D73" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>83</v>
@@ -1875,13 +1928,14 @@
       <c r="D74" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>84</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>84</v>
@@ -1889,13 +1943,14 @@
       <c r="D75" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>85</v>
@@ -1903,13 +1958,14 @@
       <c r="D76" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>86</v>
@@ -1917,13 +1973,14 @@
       <c r="D77" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>87</v>
@@ -1931,13 +1988,14 @@
       <c r="D78" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>88</v>
@@ -1945,13 +2003,14 @@
       <c r="D79" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>89</v>
@@ -1959,13 +2018,14 @@
       <c r="D80" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>90</v>
@@ -1973,13 +2033,14 @@
       <c r="D81" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>91</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>91</v>
@@ -1987,13 +2048,14 @@
       <c r="D82" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>92</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>92</v>
@@ -2001,13 +2063,14 @@
       <c r="D83" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>93</v>
@@ -2015,27 +2078,29 @@
       <c r="D84" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>94</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D85" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="B86" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>96</v>
@@ -2043,13 +2108,14 @@
       <c r="D86" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>97</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>97</v>
@@ -2057,13 +2123,14 @@
       <c r="D87" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>98</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>98</v>
@@ -2071,13 +2138,14 @@
       <c r="D88" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>99</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>99</v>
@@ -2085,13 +2153,14 @@
       <c r="D89" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>100</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>100</v>
@@ -2099,13 +2168,14 @@
       <c r="D90" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>101</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>101</v>
@@ -2113,13 +2183,14 @@
       <c r="D91" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>102</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>102</v>
@@ -2127,13 +2198,14 @@
       <c r="D92" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>103</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>103</v>
@@ -2141,27 +2213,29 @@
       <c r="D93" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>88</v>
@@ -2169,27 +2243,29 @@
       <c r="D95" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>106</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>106</v>
@@ -2197,13 +2273,14 @@
       <c r="D97" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>107</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>107</v>
@@ -2211,13 +2288,14 @@
       <c r="D98" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>108</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>108</v>
@@ -2225,13 +2303,14 @@
       <c r="D99" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>109</v>
@@ -2239,13 +2318,14 @@
       <c r="D100" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>110</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>110</v>
@@ -2253,8 +2333,9 @@
       <c r="D101" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>111</v>
       </c>
@@ -2267,8 +2348,9 @@
       <c r="D102" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>112</v>
       </c>
@@ -2281,8 +2363,9 @@
       <c r="D103" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>113</v>
       </c>
@@ -2295,8 +2378,9 @@
       <c r="D104" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>114</v>
       </c>
@@ -2309,13 +2393,14 @@
       <c r="D105" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>115</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>115</v>
@@ -2323,27 +2408,29 @@
       <c r="D106" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="D107" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>118</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>118</v>
@@ -2351,13 +2438,14 @@
       <c r="D108" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>119</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>119</v>
@@ -2365,13 +2453,14 @@
       <c r="D109" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>120</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>120</v>
@@ -2379,13 +2468,14 @@
       <c r="D110" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>121</v>
@@ -2393,13 +2483,14 @@
       <c r="D111" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>122</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>122</v>
@@ -2407,13 +2498,14 @@
       <c r="D112" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>123</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>123</v>
@@ -2421,13 +2513,14 @@
       <c r="D113" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>124</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>124</v>
@@ -2435,46 +2528,108 @@
       <c r="D114" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>133</v>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>134</v>
+        <v>125</v>
+      </c>
+      <c r="D115" s="4">
+        <v>1</v>
+      </c>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>136</v>
+        <v>126</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D117">
+        <v>128</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1</v>
+      </c>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1</v>
+      </c>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D121">
         <v>1</v>
       </c>
     </row>
@@ -2522,10 +2677,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -2539,13 +2694,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2556,13 +2711,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2573,13 +2728,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2590,13 +2745,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -2607,13 +2762,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -2628,6 +2783,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -2844,7 +3008,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -2854,16 +3018,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4814D1D9-5FD2-4661-9BCE-DE1DF84B5F68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2882,7 +3045,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2890,12 +3053,4 @@
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6FD7860-9003-4B3C-92B4-8F12E5572B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25797300-FDEC-49A8-AA18-64B98BD8B57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="147">
   <si>
     <t>ScreenName</t>
   </si>
@@ -459,17 +459,35 @@
     <t>SauceConfirmation</t>
   </si>
   <si>
-    <t>AuditHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ApprovalAuditHistory </t>
+    <t>SchoolDisciplinaryIssues</t>
+  </si>
+  <si>
+    <t>cares\Placement.xlsx</t>
+  </si>
+  <si>
+    <t>Removal</t>
+  </si>
+  <si>
+    <t>OverstayReportDetails</t>
+  </si>
+  <si>
+    <t>OverstayReportSubmission</t>
+  </si>
+  <si>
+    <t>FolioChildLocationContactLogs</t>
+  </si>
+  <si>
+    <t>CourtReports</t>
+  </si>
+  <si>
+    <t>CourtOfficerNotes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,13 +507,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -540,16 +551,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,10 +840,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="88" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2335,30 +2343,29 @@
       </c>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C102" s="4" t="s">
+      <c r="B103" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D102" s="4">
-        <v>1</v>
-      </c>
-      <c r="E102" s="4"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2367,13 +2374,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2382,43 +2389,42 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
       </c>
       <c r="E105" s="4"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
       </c>
-      <c r="E106" s="4"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
@@ -2427,73 +2433,70 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
       </c>
       <c r="E108" s="4"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
       </c>
-      <c r="E109" s="4"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="110" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
       </c>
-      <c r="E110" s="4"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="111" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
       </c>
-      <c r="E111" s="4"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -2502,13 +2505,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2517,13 +2520,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -2532,13 +2535,13 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -2547,13 +2550,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -2562,13 +2565,13 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -2577,13 +2580,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -2592,13 +2595,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>117</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -2606,30 +2609,105 @@
       <c r="E119" s="4"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="6" t="s">
-        <v>140</v>
+      <c r="A120" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D120">
-        <v>1</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D120" s="4">
+        <v>1</v>
+      </c>
+      <c r="E120" s="4"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="6" t="s">
-        <v>139</v>
+      <c r="A121" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C121" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D121">
+      <c r="C121" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D121" s="4">
+        <v>1</v>
+      </c>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D123" s="4">
+        <v>1</v>
+      </c>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D124" s="4">
+        <v>1</v>
+      </c>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D126">
         <v>1</v>
       </c>
     </row>
@@ -2783,15 +2861,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3008,7 +3077,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -3018,15 +3087,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4814D1D9-5FD2-4661-9BCE-DE1DF84B5F68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3045,7 +3115,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -3053,4 +3123,12 @@
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Documents\CW-CARES-EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata2feb\updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25797300-FDEC-49A8-AA18-64B98BD8B57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD451A7-A79E-4D2E-9BF1-3329FFFD3D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TEST" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$133</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="154">
   <si>
     <t>ScreenName</t>
   </si>
@@ -222,6 +222,21 @@
     <t>FolioPromoteToCase</t>
   </si>
   <si>
+    <t>FolioPlacement</t>
+  </si>
+  <si>
+    <t>FolioChildLocations</t>
+  </si>
+  <si>
+    <t>FolioChildLocationAbsences</t>
+  </si>
+  <si>
+    <t>ChildLocationCorrespondences</t>
+  </si>
+  <si>
+    <t>PlacementPreservationStrategy</t>
+  </si>
+  <si>
     <t>LocationServicesOrg</t>
   </si>
   <si>
@@ -231,6 +246,18 @@
     <t>SpecializationsOrg</t>
   </si>
   <si>
+    <t>ProviderSearch</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Addresses</t>
+  </si>
+  <si>
+    <t>RelatedPersons</t>
+  </si>
+  <si>
     <t>PersonSearch</t>
   </si>
   <si>
@@ -270,6 +297,9 @@
     <t>PersonBIBackgroundChecks</t>
   </si>
   <si>
+    <t>PersonHistory</t>
+  </si>
+  <si>
     <t>PersonBIROI</t>
   </si>
   <si>
@@ -279,9 +309,6 @@
     <t>PersonEIEducation</t>
   </si>
   <si>
-    <t>PersonEIPostEducationSupport</t>
-  </si>
-  <si>
     <t>PersonHealthInformation</t>
   </si>
   <si>
@@ -375,19 +402,22 @@
     <t>PriorGuardianship</t>
   </si>
   <si>
-    <t>FolioPlacement</t>
-  </si>
-  <si>
-    <t>FolioChildLocations</t>
-  </si>
-  <si>
-    <t>FolioChildLocationAbsences</t>
-  </si>
-  <si>
-    <t>ChildLocationCorrespondences</t>
-  </si>
-  <si>
-    <t>PlacementPreservationStrategy</t>
+    <t>SchoolDisciplinaryIssues</t>
+  </si>
+  <si>
+    <t>cares\Placement.xlsx</t>
+  </si>
+  <si>
+    <t>FolioChildLocationContactLogs</t>
+  </si>
+  <si>
+    <t>Removal</t>
+  </si>
+  <si>
+    <t>OverstayReportDetails</t>
+  </si>
+  <si>
+    <t>OverstayReportSubmission</t>
   </si>
   <si>
     <t>NewCase</t>
@@ -435,6 +465,12 @@
     <t>FolioFamilyTransfer</t>
   </si>
   <si>
+    <t>CaseContactLog</t>
+  </si>
+  <si>
+    <t>CaseTribalInquiry</t>
+  </si>
+  <si>
     <t>InitialScreening</t>
   </si>
   <si>
@@ -459,35 +495,20 @@
     <t>SauceConfirmation</t>
   </si>
   <si>
-    <t>SchoolDisciplinaryIssues</t>
-  </si>
-  <si>
-    <t>cares\Placement.xlsx</t>
-  </si>
-  <si>
-    <t>Removal</t>
-  </si>
-  <si>
-    <t>OverstayReportDetails</t>
-  </si>
-  <si>
-    <t>OverstayReportSubmission</t>
-  </si>
-  <si>
-    <t>FolioChildLocationContactLogs</t>
-  </si>
-  <si>
-    <t>CourtReports</t>
-  </si>
-  <si>
-    <t>CourtOfficerNotes</t>
+    <t>PersonRelated</t>
+  </si>
+  <si>
+    <t>PersonSocialHistory</t>
+  </si>
+  <si>
+    <t>ProviderOptions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +528,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -551,13 +579,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,10 +869,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="88" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1595,13 +1624,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1610,13 +1639,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1625,88 +1654,84 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
       </c>
       <c r="E54" s="4"/>
     </row>
-    <row r="55" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>63</v>
+    <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
       </c>
-      <c r="E55" s="4"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>65</v>
+    </row>
+    <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
       </c>
-      <c r="E56" s="4"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A57" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>66</v>
+    </row>
+    <row r="57" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
       </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A58" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>67</v>
+    </row>
+    <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
       </c>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1715,13 +1740,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1730,13 +1755,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1745,13 +1770,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1760,43 +1785,43 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
       </c>
       <c r="E63" s="4"/>
     </row>
-    <row r="64" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
       </c>
       <c r="E64" s="4"/>
     </row>
-    <row r="65" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -1805,28 +1830,28 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
       </c>
       <c r="E66" s="4"/>
     </row>
-    <row r="67" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -1835,13 +1860,13 @@
     </row>
     <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -1850,88 +1875,88 @@
     </row>
     <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
       </c>
       <c r="E69" s="4"/>
     </row>
-    <row r="70" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
       </c>
       <c r="E70" s="4"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D71" s="4">
-        <v>1</v>
-      </c>
-      <c r="E71" s="4"/>
+    <row r="71" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
       </c>
       <c r="E72" s="4"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
       </c>
       <c r="E73" s="4"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -1940,28 +1965,28 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
       </c>
       <c r="E75" s="4"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -1970,28 +1995,28 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
       </c>
       <c r="E77" s="4"/>
     </row>
-    <row r="78" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2000,13 +2025,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2015,28 +2040,28 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
       </c>
       <c r="E80" s="4"/>
     </row>
-    <row r="81" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2045,43 +2070,43 @@
     </row>
     <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
       </c>
       <c r="E82" s="4"/>
     </row>
-    <row r="83" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
       </c>
       <c r="E83" s="4"/>
     </row>
-    <row r="84" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2090,13 +2115,13 @@
     </row>
     <row r="85" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2105,13 +2130,13 @@
     </row>
     <row r="86" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -2120,13 +2145,13 @@
     </row>
     <row r="87" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2135,13 +2160,13 @@
     </row>
     <row r="88" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2150,13 +2175,13 @@
     </row>
     <row r="89" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2165,13 +2190,13 @@
     </row>
     <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2180,13 +2205,13 @@
     </row>
     <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2195,13 +2220,13 @@
     </row>
     <row r="92" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2210,13 +2235,13 @@
     </row>
     <row r="93" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2225,13 +2250,13 @@
     </row>
     <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2240,13 +2265,13 @@
     </row>
     <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2255,13 +2280,13 @@
     </row>
     <row r="96" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2270,13 +2295,13 @@
     </row>
     <row r="97" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2285,13 +2310,13 @@
     </row>
     <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2300,13 +2325,13 @@
     </row>
     <row r="99" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2315,13 +2340,13 @@
     </row>
     <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2330,72 +2355,73 @@
     </row>
     <row r="101" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
       </c>
       <c r="E101" s="4"/>
     </row>
-    <row r="102" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
       </c>
+      <c r="E102" s="4"/>
     </row>
     <row r="103" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
       </c>
       <c r="E103" s="4"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
       </c>
       <c r="E104" s="4"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2404,114 +2430,114 @@
     </row>
     <row r="106" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
       </c>
-      <c r="E107" s="4"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="108" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>140</v>
+        <v>73</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
       </c>
-      <c r="E108" s="4"/>
-    </row>
-    <row r="109" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
       </c>
-      <c r="E112" s="4"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2520,88 +2546,81 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
       </c>
       <c r="E114" s="4"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
       </c>
-      <c r="E115" s="4"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="116" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="C116" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D116" s="4">
-        <v>1</v>
-      </c>
-      <c r="E116" s="4"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A117" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="C117" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
       </c>
-      <c r="E117" s="4"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="118" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D118" s="4">
-        <v>1</v>
-      </c>
-      <c r="E118" s="4"/>
+        <v>153</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -2610,13 +2629,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -2625,13 +2644,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -2640,13 +2659,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
@@ -2655,13 +2674,13 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
@@ -2670,13 +2689,13 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D124" s="4">
         <v>1</v>
@@ -2684,35 +2703,156 @@
       <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>145</v>
+      <c r="A125" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D125" s="4">
+        <v>1</v>
+      </c>
+      <c r="E125" s="4"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>146</v>
+      <c r="A126" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>127</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D126" s="4">
+        <v>1</v>
+      </c>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D127" s="4">
+        <v>1</v>
+      </c>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D128" s="4">
+        <v>1</v>
+      </c>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D129" s="4">
+        <v>1</v>
+      </c>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D130" s="4">
+        <v>1</v>
+      </c>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D131" s="4">
+        <v>1</v>
+      </c>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D132" s="6">
+        <v>1</v>
+      </c>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D133" s="6">
+        <v>1</v>
+      </c>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
+  <autoFilter ref="A1:E133" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2755,10 +2895,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -2772,13 +2912,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2789,13 +2929,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -2806,13 +2946,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -2823,13 +2963,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -2840,13 +2980,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -2861,6 +3001,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -3077,16 +3227,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3097,6 +3237,16 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4814D1D9-5FD2-4661-9BCE-DE1DF84B5F68}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3115,16 +3265,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
   <ds:schemaRefs>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata2feb\updated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\CARES---Selenium-Automation-Develop_Branch (2)\CARES---Selenium-Automation-Develop_Branch\src\main\java\Artifacts\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD451A7-A79E-4D2E-9BF1-3329FFFD3D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF084D7-78A9-46AF-A185-F877224523F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="161">
   <si>
     <t>ScreenName</t>
   </si>
@@ -502,6 +502,27 @@
   </si>
   <si>
     <t>ProviderOptions</t>
+  </si>
+  <si>
+    <t>CourtOfficerNotes</t>
+  </si>
+  <si>
+    <t>CourtReports</t>
+  </si>
+  <si>
+    <t>CourtMinuteOrders</t>
+  </si>
+  <si>
+    <t>DocumentDistributions</t>
+  </si>
+  <si>
+    <t>RelatedFolios</t>
+  </si>
+  <si>
+    <t>CourtsApprovalAndAuditHistory</t>
+  </si>
+  <si>
+    <t>CourtsAuditHistory</t>
   </si>
 </sst>
 </file>
@@ -869,10 +890,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2838,18 +2859,107 @@
       <c r="E133" s="4"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="4"/>
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
+      <c r="A134" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D134" s="4">
+        <v>1</v>
+      </c>
       <c r="E134" s="4"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A135" s="4"/>
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="A135" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D135" s="4">
+        <v>1</v>
+      </c>
       <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>156</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>157</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>159</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B141" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E133" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
@@ -3001,13 +3111,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3228,20 +3337,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3266,9 +3374,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\CARES---Selenium-Automation-Develop_Branch (2)\CARES---Selenium-Automation-Develop_Branch\src\main\java\Artifacts\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF084D7-78A9-46AF-A185-F877224523F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC139BBE-0D86-48A6-B1D4-ED608C6E4D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="TEST" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestDataMappingSheet_SD!$A$1:$E$138</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="173">
   <si>
     <t>ScreenName</t>
   </si>
@@ -222,195 +222,201 @@
     <t>FolioPromoteToCase</t>
   </si>
   <si>
+    <t>LocationServicesOrg</t>
+  </si>
+  <si>
+    <t>CredentialsOrg</t>
+  </si>
+  <si>
+    <t>SpecializationsOrg</t>
+  </si>
+  <si>
+    <t>OrganizationProviderSearch</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Addresses</t>
+  </si>
+  <si>
+    <t>RelatedPersons</t>
+  </si>
+  <si>
+    <t>PersonSearch</t>
+  </si>
+  <si>
+    <t>cares\Person.xlsx</t>
+  </si>
+  <si>
+    <t>PersonContactLogMembers</t>
+  </si>
+  <si>
+    <t>PersonDetails</t>
+  </si>
+  <si>
+    <t>PersonAKA</t>
+  </si>
+  <si>
+    <t>PersonHouseholdMemberships</t>
+  </si>
+  <si>
+    <t>PersonAddresses</t>
+  </si>
+  <si>
+    <t>PersonPhone</t>
+  </si>
+  <si>
+    <t>PersonRelationships</t>
+  </si>
+  <si>
+    <t>PersonTribalInformation</t>
+  </si>
+  <si>
+    <t>ActivePersonAddress</t>
+  </si>
+  <si>
+    <t>InactivePersonAddress</t>
+  </si>
+  <si>
+    <t>PersonBIBackgroundChecks</t>
+  </si>
+  <si>
+    <t>PersonHistory</t>
+  </si>
+  <si>
+    <t>PersonBIROI</t>
+  </si>
+  <si>
+    <t>PersonBIJSI</t>
+  </si>
+  <si>
+    <t>PersonEIEducation</t>
+  </si>
+  <si>
+    <t>PersonHealthInformation</t>
+  </si>
+  <si>
+    <t>PersonBHDiagnosis</t>
+  </si>
+  <si>
+    <t>PersonBehavioralEmotionalNeeds</t>
+  </si>
+  <si>
+    <t>PersonalStrengthsCopingSkills</t>
+  </si>
+  <si>
+    <t>SubstanceDependencyTreatment</t>
+  </si>
+  <si>
+    <t>PersonLegalIssues</t>
+  </si>
+  <si>
+    <t>AlcoholDependencyTreatment</t>
+  </si>
+  <si>
+    <t>AlcoholOrSubstanceUse</t>
+  </si>
+  <si>
+    <t>OtherHealthInsuranceCoverage</t>
+  </si>
+  <si>
+    <t>PersonPrescriptionDrugs</t>
+  </si>
+  <si>
+    <t>PersonAllergies</t>
+  </si>
+  <si>
+    <t>PersonDentalExam</t>
+  </si>
+  <si>
+    <t>HearingImpairmentAndDeafness</t>
+  </si>
+  <si>
+    <t>PersonHospitalizations</t>
+  </si>
+  <si>
+    <t>PersonImmunizations</t>
+  </si>
+  <si>
+    <t>MedicalEquipmentRequiredInformation</t>
+  </si>
+  <si>
+    <t>MedicalEquipmentRequired</t>
+  </si>
+  <si>
+    <t>PersonMedicalExamsInformation</t>
+  </si>
+  <si>
+    <t>PersonMedicationsInformation</t>
+  </si>
+  <si>
+    <t>PersonPregnancy</t>
+  </si>
+  <si>
+    <t>PersonRegionalCenterInformation</t>
+  </si>
+  <si>
+    <t>PersonSpecialDietRequired</t>
+  </si>
+  <si>
+    <t>PersonHIMediCal</t>
+  </si>
+  <si>
+    <t>PersonHIMedicaid</t>
+  </si>
+  <si>
+    <t>PersonMentalHealth</t>
+  </si>
+  <si>
+    <t>PersonOtherHealthInsuranceCoverage</t>
+  </si>
+  <si>
+    <t>PersonPHVisualImpairement</t>
+  </si>
+  <si>
+    <t>PostSecondaryEducationSupport</t>
+  </si>
+  <si>
+    <t>PriorAdoptionAndGuardianship</t>
+  </si>
+  <si>
+    <t>PriorAdoption</t>
+  </si>
+  <si>
+    <t>PriorGuardianship</t>
+  </si>
+  <si>
+    <t>SchoolDisciplinaryIssues</t>
+  </si>
+  <si>
+    <t>PersonRelated</t>
+  </si>
+  <si>
+    <t>PersonSocialHistory</t>
+  </si>
+  <si>
     <t>FolioPlacement</t>
   </si>
   <si>
+    <t>cares\Placement.xlsx</t>
+  </si>
+  <si>
     <t>FolioChildLocations</t>
   </si>
   <si>
     <t>FolioChildLocationAbsences</t>
   </si>
   <si>
+    <t>FolioChildLocationContactLogs</t>
+  </si>
+  <si>
     <t>ChildLocationCorrespondences</t>
   </si>
   <si>
     <t>PlacementPreservationStrategy</t>
   </si>
   <si>
-    <t>LocationServicesOrg</t>
-  </si>
-  <si>
-    <t>CredentialsOrg</t>
-  </si>
-  <si>
-    <t>SpecializationsOrg</t>
-  </si>
-  <si>
-    <t>ProviderSearch</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Addresses</t>
-  </si>
-  <si>
-    <t>RelatedPersons</t>
-  </si>
-  <si>
-    <t>PersonSearch</t>
-  </si>
-  <si>
-    <t>cares\Person.xlsx</t>
-  </si>
-  <si>
-    <t>PersonContactLogMembers</t>
-  </si>
-  <si>
-    <t>PersonDetails</t>
-  </si>
-  <si>
-    <t>PersonAKA</t>
-  </si>
-  <si>
-    <t>PersonHouseholdMemberships</t>
-  </si>
-  <si>
-    <t>PersonAddresses</t>
-  </si>
-  <si>
-    <t>PersonPhone</t>
-  </si>
-  <si>
-    <t>PersonRelationships</t>
-  </si>
-  <si>
-    <t>PersonTribalInformation</t>
-  </si>
-  <si>
-    <t>ActivePersonAddress</t>
-  </si>
-  <si>
-    <t>InactivePersonAddress</t>
-  </si>
-  <si>
-    <t>PersonBIBackgroundChecks</t>
-  </si>
-  <si>
-    <t>PersonHistory</t>
-  </si>
-  <si>
-    <t>PersonBIROI</t>
-  </si>
-  <si>
-    <t>PersonBIJSI</t>
-  </si>
-  <si>
-    <t>PersonEIEducation</t>
-  </si>
-  <si>
-    <t>PersonHealthInformation</t>
-  </si>
-  <si>
-    <t>PersonBHDiagnosis</t>
-  </si>
-  <si>
-    <t>PersonBehavioralEmotionalNeeds</t>
-  </si>
-  <si>
-    <t>PersonalStrengthsCopingSkills</t>
-  </si>
-  <si>
-    <t>SubstanceDependencyTreatment</t>
-  </si>
-  <si>
-    <t>PersonLegalIssues</t>
-  </si>
-  <si>
-    <t>AlcoholDependencyTreatment</t>
-  </si>
-  <si>
-    <t>AlcoholOrSubstanceUse</t>
-  </si>
-  <si>
-    <t>OtherHealthInsuranceCoverage</t>
-  </si>
-  <si>
-    <t>PersonPrescriptionDrugs</t>
-  </si>
-  <si>
-    <t>PersonAllergies</t>
-  </si>
-  <si>
-    <t>PersonDentalExam</t>
-  </si>
-  <si>
-    <t>HearingImpairmentAndDeafness</t>
-  </si>
-  <si>
-    <t>PersonHospitalizations</t>
-  </si>
-  <si>
-    <t>PersonImmunizations</t>
-  </si>
-  <si>
-    <t>MedicalEquipmentRequiredInformation</t>
-  </si>
-  <si>
-    <t>MedicalEquipmentRequired</t>
-  </si>
-  <si>
-    <t>PersonMedicalExamsInformation</t>
-  </si>
-  <si>
-    <t>PersonMedicationsInformation</t>
-  </si>
-  <si>
-    <t>PersonPregnancy</t>
-  </si>
-  <si>
-    <t>PersonRegionalCenterInformation</t>
-  </si>
-  <si>
-    <t>PersonSpecialDietRequired</t>
-  </si>
-  <si>
-    <t>PersonHIMediCal</t>
-  </si>
-  <si>
-    <t>PersonHIMedicaid</t>
-  </si>
-  <si>
-    <t>PersonMentalHealth</t>
-  </si>
-  <si>
-    <t>PersonOtherHealthInsuranceCoverage</t>
-  </si>
-  <si>
-    <t>PersonPHVisualImpairement</t>
-  </si>
-  <si>
-    <t>PostSecondaryEducationSupport</t>
-  </si>
-  <si>
-    <t>PriorAdoptionAndGuardianship</t>
-  </si>
-  <si>
-    <t>PriorAdoption</t>
-  </si>
-  <si>
-    <t>PriorGuardianship</t>
-  </si>
-  <si>
-    <t>SchoolDisciplinaryIssues</t>
-  </si>
-  <si>
-    <t>cares\Placement.xlsx</t>
-  </si>
-  <si>
-    <t>FolioChildLocationContactLogs</t>
-  </si>
-  <si>
     <t>Removal</t>
   </si>
   <si>
@@ -420,55 +426,103 @@
     <t>OverstayReportSubmission</t>
   </si>
   <si>
+    <t>FolioProviderSearch</t>
+  </si>
+  <si>
+    <t>ProviderOptions</t>
+  </si>
+  <si>
+    <t>RecordAlertAndTasks</t>
+  </si>
+  <si>
+    <t>FolioTask</t>
+  </si>
+  <si>
+    <t>ProviderOptionsDocuments</t>
+  </si>
+  <si>
+    <t>FolioChildLocationOverstayRepo</t>
+  </si>
+  <si>
+    <t>CaseAssignments</t>
+  </si>
+  <si>
+    <t>cares\Case.xlsx</t>
+  </si>
+  <si>
+    <t>CaseChangeAssignments</t>
+  </si>
+  <si>
+    <t>CaseTask</t>
+  </si>
+  <si>
+    <t>CaseDetails</t>
+  </si>
+  <si>
+    <t>CaseSubmitForApproval</t>
+  </si>
+  <si>
+    <t>CaseApprovalHistory</t>
+  </si>
+  <si>
+    <t>CaseRelatedFolios</t>
+  </si>
+  <si>
+    <t>CaseFolioPersons</t>
+  </si>
+  <si>
+    <t>GenerateDocument</t>
+  </si>
+  <si>
+    <t>cares\Courts.xlsx</t>
+  </si>
+  <si>
+    <t>GeneratePetition</t>
+  </si>
+  <si>
+    <t>PetitionAllegations</t>
+  </si>
+  <si>
+    <t>FolioFamilyTransfer</t>
+  </si>
+  <si>
+    <t>CaseContactLog</t>
+  </si>
+  <si>
+    <t>CaseTribalInquiry</t>
+  </si>
+  <si>
     <t>NewCase</t>
   </si>
   <si>
-    <t>cares\Case.xlsx</t>
-  </si>
-  <si>
-    <t>CaseAssignments</t>
-  </si>
-  <si>
-    <t>CaseChangeAssignments</t>
-  </si>
-  <si>
-    <t>CaseTask</t>
-  </si>
-  <si>
-    <t>CaseDetails</t>
-  </si>
-  <si>
-    <t>CaseSubmitForApproval</t>
-  </si>
-  <si>
-    <t>CaseApprovalHistory</t>
-  </si>
-  <si>
-    <t>CaseRelatedFolios</t>
-  </si>
-  <si>
-    <t>CaseFolioPersons</t>
-  </si>
-  <si>
-    <t>GenerateDocument</t>
-  </si>
-  <si>
-    <t>cares\Courts.xlsx</t>
-  </si>
-  <si>
-    <t>GeneratePetition</t>
-  </si>
-  <si>
-    <t>PetitionAllegations</t>
-  </si>
-  <si>
-    <t>FolioFamilyTransfer</t>
-  </si>
-  <si>
-    <t>CaseContactLog</t>
-  </si>
-  <si>
-    <t>CaseTribalInquiry</t>
+    <t>EligibilityDetails</t>
+  </si>
+  <si>
+    <t>ChildSupportEligibilityInfo</t>
+  </si>
+  <si>
+    <t>MediCalEligibilityRequestInfo</t>
+  </si>
+  <si>
+    <t>EligibilityDocuments</t>
+  </si>
+  <si>
+    <t>EligibilityHomeOfRemoval</t>
+  </si>
+  <si>
+    <t>FosterCareEligibilityInfo</t>
+  </si>
+  <si>
+    <t>EligibilityTask</t>
+  </si>
+  <si>
+    <t>EligibilityAssignments</t>
+  </si>
+  <si>
+    <t>ChildIncomeAndProperty</t>
+  </si>
+  <si>
+    <t>EligibilityGenerateDocument</t>
   </si>
   <si>
     <t>InitialScreening</t>
@@ -495,34 +549,16 @@
     <t>SauceConfirmation</t>
   </si>
   <si>
-    <t>PersonRelated</t>
-  </si>
-  <si>
-    <t>PersonSocialHistory</t>
-  </si>
-  <si>
-    <t>ProviderOptions</t>
-  </si>
-  <si>
-    <t>CourtOfficerNotes</t>
-  </si>
-  <si>
-    <t>CourtReports</t>
-  </si>
-  <si>
-    <t>CourtMinuteOrders</t>
-  </si>
-  <si>
-    <t>DocumentDistributions</t>
-  </si>
-  <si>
-    <t>RelatedFolios</t>
-  </si>
-  <si>
-    <t>CourtsApprovalAndAuditHistory</t>
-  </si>
-  <si>
-    <t>CourtsAuditHistory</t>
+    <t>PlacementStability</t>
+  </si>
+  <si>
+    <t>FolioBackgroundChecks</t>
+  </si>
+  <si>
+    <t>FolioInspections</t>
+  </si>
+  <si>
+    <t>TribalPlacementPreferences</t>
   </si>
 </sst>
 </file>
@@ -600,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -608,6 +644,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,10 +927,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A130" sqref="A130"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B154" sqref="B154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1645,13 +1682,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -1660,13 +1697,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -1675,13 +1712,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -1690,13 +1727,13 @@
     </row>
     <row r="55" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -1704,13 +1741,13 @@
     </row>
     <row r="56" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -1718,13 +1755,13 @@
     </row>
     <row r="57" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -1732,13 +1769,13 @@
     </row>
     <row r="58" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -1746,13 +1783,13 @@
     </row>
     <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -1761,13 +1798,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -1776,13 +1813,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -1791,13 +1828,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -1806,13 +1843,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -1821,13 +1858,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B64" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -1836,13 +1873,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -1851,13 +1888,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -1866,13 +1903,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -1881,13 +1918,13 @@
     </row>
     <row r="68" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -1896,13 +1933,13 @@
     </row>
     <row r="69" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -1911,13 +1948,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -1926,13 +1963,13 @@
     </row>
     <row r="71" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
@@ -1941,13 +1978,13 @@
     </row>
     <row r="72" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -1956,13 +1993,13 @@
     </row>
     <row r="73" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -1971,13 +2008,13 @@
     </row>
     <row r="74" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -1986,13 +2023,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -2001,13 +2038,13 @@
     </row>
     <row r="76" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -2016,13 +2053,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -2031,13 +2068,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -2046,13 +2083,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -2061,13 +2098,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -2076,13 +2113,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -2091,13 +2128,13 @@
     </row>
     <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -2106,13 +2143,13 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -2121,13 +2158,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -2136,13 +2173,13 @@
     </row>
     <row r="85" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -2151,13 +2188,13 @@
     </row>
     <row r="86" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -2166,13 +2203,13 @@
     </row>
     <row r="87" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -2181,13 +2218,13 @@
     </row>
     <row r="88" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -2196,13 +2233,13 @@
     </row>
     <row r="89" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -2211,13 +2248,13 @@
     </row>
     <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -2226,13 +2263,13 @@
     </row>
     <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -2241,13 +2278,13 @@
     </row>
     <row r="92" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -2256,13 +2293,13 @@
     </row>
     <row r="93" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -2271,13 +2308,13 @@
     </row>
     <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -2286,13 +2323,13 @@
     </row>
     <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -2301,13 +2338,13 @@
     </row>
     <row r="96" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -2316,13 +2353,13 @@
     </row>
     <row r="97" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -2331,13 +2368,13 @@
     </row>
     <row r="98" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -2346,13 +2383,13 @@
     </row>
     <row r="99" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -2361,13 +2398,13 @@
     </row>
     <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -2376,13 +2413,13 @@
     </row>
     <row r="101" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -2391,13 +2428,13 @@
     </row>
     <row r="102" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -2406,13 +2443,13 @@
     </row>
     <row r="103" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -2421,13 +2458,13 @@
     </row>
     <row r="104" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -2436,13 +2473,13 @@
     </row>
     <row r="105" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -2451,13 +2488,13 @@
     </row>
     <row r="106" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -2465,13 +2502,13 @@
     </row>
     <row r="107" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
@@ -2479,13 +2516,13 @@
     </row>
     <row r="108" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
@@ -2493,13 +2530,13 @@
     </row>
     <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -2508,13 +2545,13 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -2523,13 +2560,13 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="B111" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -2541,7 +2578,7 @@
         <v>122</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>122</v>
@@ -2552,13 +2589,13 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -2567,13 +2604,13 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -2582,13 +2619,13 @@
     </row>
     <row r="115" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -2596,13 +2633,13 @@
     </row>
     <row r="116" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -2610,13 +2647,13 @@
     </row>
     <row r="117" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -2624,114 +2661,112 @@
     </row>
     <row r="118" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
       </c>
-      <c r="E119" s="4"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A120" s="4" t="s">
-        <v>128</v>
+    </row>
+    <row r="120" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>128</v>
+        <v>119</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
       </c>
-      <c r="E120" s="4"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A121" s="4" t="s">
-        <v>129</v>
+    </row>
+    <row r="121" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>129</v>
+        <v>119</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
       </c>
-      <c r="E121" s="4"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="4" t="s">
-        <v>130</v>
+      <c r="A122" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
       </c>
       <c r="E122" s="4"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A123" s="4" t="s">
-        <v>131</v>
+    <row r="123" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>131</v>
+        <v>119</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
       </c>
-      <c r="E123" s="4"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="4" t="s">
-        <v>132</v>
+    </row>
+    <row r="124" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>132</v>
+        <v>119</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="D124" s="4">
         <v>1</v>
       </c>
-      <c r="E124" s="4"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D125" s="4">
         <v>1</v>
@@ -2740,13 +2775,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D126" s="4">
         <v>1</v>
@@ -2755,13 +2790,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B127" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="C127" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D127" s="4">
         <v>1</v>
@@ -2770,13 +2805,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D128" s="4">
         <v>1</v>
@@ -2785,13 +2820,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D129" s="4">
         <v>1</v>
@@ -2800,13 +2835,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D130" s="4">
         <v>1</v>
@@ -2815,13 +2850,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D131" s="4">
         <v>1</v>
@@ -2829,44 +2864,44 @@
       <c r="E131" s="4"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A132" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D132" s="6">
+      <c r="A132" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D132" s="4">
         <v>1</v>
       </c>
       <c r="E132" s="4"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A133" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D133" s="6">
+      <c r="A133" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D133" s="4">
         <v>1</v>
       </c>
       <c r="E133" s="4"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D134" s="4">
         <v>1</v>
@@ -2875,94 +2910,288 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D135" s="4">
+        <v>1</v>
+      </c>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D136" s="4">
+        <v>1</v>
+      </c>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D137" s="6">
+        <v>1</v>
+      </c>
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D138" s="6">
+        <v>1</v>
+      </c>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1</v>
+      </c>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D140" s="4">
+        <v>1</v>
+      </c>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D141" s="4">
+        <v>1</v>
+      </c>
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D142" s="4">
+        <v>1</v>
+      </c>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D143" s="4">
+        <v>1</v>
+      </c>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B135" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C135" s="4" t="s">
+      <c r="B144" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C144" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D135" s="4">
-        <v>1</v>
-      </c>
-      <c r="E135" s="4"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="D144" s="4">
+        <v>1</v>
+      </c>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B136" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C136" s="4" t="s">
+      <c r="B145" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C145" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="D145" s="4">
+        <v>1</v>
+      </c>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C137" s="4" t="s">
+      <c r="B146" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C146" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+      <c r="D146" s="4">
+        <v>1</v>
+      </c>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B138" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C138" s="4" t="s">
+      <c r="B147" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C147" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="D147" s="4">
+        <v>1</v>
+      </c>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B139" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C139" s="4" t="s">
+      <c r="B148" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="D148" s="4">
+        <v>1</v>
+      </c>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B140" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C140" s="4" t="s">
+      <c r="B149" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B141" s="4"/>
+      <c r="D149" s="4">
+        <v>1</v>
+      </c>
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D150" s="4">
+        <v>1</v>
+      </c>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D151" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D152" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>172</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C153" t="s">
+        <v>172</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E133" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
+  <autoFilter ref="A1:E138" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3005,10 +3234,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>12</v>
@@ -3022,13 +3251,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -3039,13 +3268,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -3056,13 +3285,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -3073,13 +3302,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -3090,13 +3319,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -3381,4 +3610,10 @@
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC139BBE-0D86-48A6-B1D4-ED608C6E4D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5739C72C-ED6C-4990-93C6-E7EA1B9609D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -930,7 +930,7 @@
   <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3340,12 +3340,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3566,19 +3567,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3603,11 +3605,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5784B0F1-2B42-48F2-9F56-1FD1588A0416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074D6DE6-F092-4178-90CC-96EDBBEA46D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E421C0D7-61FF-407A-9B8D-00837FCEF7BE}"/>
   </bookViews>
@@ -958,8 +958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB594DC-C0CC-4EE6-B811-2623BA7C10E9}">
   <dimension ref="A1:E165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/TestDataMappingSheet.xlsx
+++ b/TestDataMappingSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{074D6DE6-F092-4178-90CC-96EDBBEA46D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEB26D92-A044-45F4-8E4D-8469AD27D181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E421C0D7-61FF-407A-9B8D-00837FCEF7BE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
   <sheets>
     <sheet name="TestDataMappingSheet_SD" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="186">
   <si>
     <t>ScreenName</t>
   </si>
@@ -431,9 +431,6 @@
     <t>ProviderOptions</t>
   </si>
   <si>
-    <t>RecordAlertAndTasks</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -473,6 +470,12 @@
     <t>cares\Courts.xlsx</t>
   </si>
   <si>
+    <t>Petition</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
     <t>GeneratePetition</t>
   </si>
   <si>
@@ -561,6 +564,36 @@
   </si>
   <si>
     <t>SubmitToCalSAWS</t>
+  </si>
+  <si>
+    <t>CourtMinuteOrders</t>
+  </si>
+  <si>
+    <t>CourtGenerateDocument</t>
+  </si>
+  <si>
+    <t>AmendPetition</t>
+  </si>
+  <si>
+    <t>Related</t>
+  </si>
+  <si>
+    <t>RecordAlertsAndTasks</t>
+  </si>
+  <si>
+    <t>CourtOfficerNotes</t>
+  </si>
+  <si>
+    <t>TribalPlacementPreferences</t>
+  </si>
+  <si>
+    <t>ParentGuardPlacementPreferences</t>
+  </si>
+  <si>
+    <t>YouthPlacementPreferences</t>
+  </si>
+  <si>
+    <t>PlacementNeeds</t>
   </si>
 </sst>
 </file>
@@ -595,7 +628,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,6 +638,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,12 +675,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -955,20 +996,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB594DC-C0CC-4EE6-B811-2623BA7C10E9}">
-  <dimension ref="A1:E165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
+  <dimension ref="A1:E175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172:E175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -2677,13 +2718,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="B122" t="s">
         <v>120</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -2691,13 +2732,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B123" t="s">
         <v>120</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -2719,13 +2760,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B125" t="s">
         <v>120</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -2733,13 +2774,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B126" t="s">
         <v>120</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -2747,13 +2788,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" t="s">
         <v>135</v>
       </c>
-      <c r="B127" t="s">
-        <v>136</v>
-      </c>
       <c r="C127" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -2761,13 +2802,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B128" t="s">
+        <v>135</v>
+      </c>
+      <c r="C128" t="s">
         <v>136</v>
-      </c>
-      <c r="C128" t="s">
-        <v>137</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -2775,13 +2816,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C129" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -2789,13 +2830,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C130" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -2803,13 +2844,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -2817,13 +2858,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -2831,13 +2872,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -2845,13 +2886,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -2859,13 +2900,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C135" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -2873,103 +2914,111 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>144</v>
+      </c>
+      <c r="B136" t="s">
+        <v>143</v>
+      </c>
+      <c r="C136" t="s">
+        <v>144</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D137" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D138" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D139" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D140" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
         <v>145</v>
       </c>
-      <c r="B136" t="s">
-        <v>144</v>
-      </c>
-      <c r="C136" t="s">
+      <c r="B141" t="s">
+        <v>143</v>
+      </c>
+      <c r="C141" t="s">
         <v>145</v>
       </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A137" s="4" t="s">
+      <c r="D141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>146</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C137" s="4" t="s">
+      <c r="B142" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" t="s">
         <v>146</v>
       </c>
-      <c r="D137" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A138" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A139" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A140" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A141" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A142" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D142" s="4">
+      <c r="D142">
         <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D143" s="4">
         <v>1</v>
@@ -2977,131 +3026,117 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D144" s="4">
-        <v>1</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D144" s="4"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D145" s="4">
-        <v>1</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D145" s="4"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D146" s="4">
-        <v>1</v>
-      </c>
-      <c r="E146" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D147" s="4">
-        <v>1</v>
-      </c>
-      <c r="E147" s="4"/>
+        <v>151</v>
+      </c>
+      <c r="D147" s="4"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D148" s="4">
         <v>1</v>
       </c>
-      <c r="E148" s="4"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D149" s="4">
         <v>1</v>
       </c>
-      <c r="E149" s="4"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D150" s="4">
         <v>1</v>
       </c>
-      <c r="E150" s="4"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D151" s="4">
         <v>1</v>
       </c>
-      <c r="E151" s="4"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D152" s="4">
         <v>1</v>
@@ -3110,13 +3145,13 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D153" s="4">
         <v>1</v>
@@ -3125,13 +3160,13 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D154" s="4">
         <v>1</v>
@@ -3140,13 +3175,13 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D155" s="4">
         <v>1</v>
@@ -3155,13 +3190,13 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D156" s="4">
         <v>1</v>
@@ -3170,13 +3205,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B157" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D157" s="4">
         <v>1</v>
@@ -3185,13 +3220,13 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>120</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D158" s="4">
         <v>1</v>
@@ -3200,109 +3235,539 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D159" s="4">
+        <v>1</v>
+      </c>
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D160" s="4">
+        <v>1</v>
+      </c>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D161" s="4">
+        <v>1</v>
+      </c>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D162" s="4">
+        <v>1</v>
+      </c>
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D163" s="4">
+        <v>1</v>
+      </c>
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C159" s="4" t="s">
+      <c r="B164" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D159" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+      <c r="D164" s="4">
+        <v>1</v>
+      </c>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B160" t="s">
-        <v>120</v>
-      </c>
-      <c r="C160" t="s">
+      <c r="B165" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="D165" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
         <v>170</v>
       </c>
-      <c r="B161" t="s">
-        <v>120</v>
-      </c>
-      <c r="C161" t="s">
+      <c r="B166" t="s">
+        <v>120</v>
+      </c>
+      <c r="C166" t="s">
         <v>170</v>
       </c>
-      <c r="D161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+      <c r="D166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
         <v>171</v>
       </c>
-      <c r="B162" t="s">
-        <v>120</v>
-      </c>
-      <c r="C162" t="s">
+      <c r="B167" t="s">
+        <v>120</v>
+      </c>
+      <c r="C167" t="s">
         <v>171</v>
       </c>
-      <c r="D162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+      <c r="D167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
         <v>172</v>
       </c>
-      <c r="B163" t="s">
-        <v>120</v>
-      </c>
-      <c r="C163" t="s">
+      <c r="B168" t="s">
+        <v>120</v>
+      </c>
+      <c r="C168" t="s">
         <v>172</v>
       </c>
-      <c r="D163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+      <c r="D168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
         <v>173</v>
       </c>
-      <c r="B164" t="s">
-        <v>120</v>
-      </c>
-      <c r="C164" t="s">
+      <c r="B169" t="s">
+        <v>120</v>
+      </c>
+      <c r="C169" t="s">
         <v>173</v>
       </c>
-      <c r="D164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>174</v>
       </c>
-      <c r="B165" t="s">
-        <v>120</v>
-      </c>
-      <c r="C165" t="s">
+      <c r="B170" t="s">
+        <v>120</v>
+      </c>
+      <c r="C170" t="s">
         <v>174</v>
       </c>
-      <c r="D165">
-        <v>1</v>
-      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171" t="s">
+        <v>120</v>
+      </c>
+      <c r="C171" t="s">
+        <v>175</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D172" s="6">
+        <v>1</v>
+      </c>
+      <c r="E172" s="6"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D173" s="6">
+        <v>1</v>
+      </c>
+      <c r="E173" s="6"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D174" s="6">
+        <v>1</v>
+      </c>
+      <c r="E174" s="6"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D175" s="6">
+        <v>1</v>
+      </c>
+      <c r="E175" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
+    <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
+    <xsd:import namespace="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="49c1c420-9681-49d8-b218-968a87430846" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="10" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="5bce90d6-5a2c-47e0-8337-aac7acda0e97" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="eb87e36b-823b-4123-a7f7-e23d77fa1380" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43CE2E60-11EC-460C-8EB5-9B22349B2260}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A98A39AE-7C02-46D3-B866-B3CB36255C0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="60f4fc0e-4376-443b-9113-f11ee5b2b38a"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA0291AF-4F81-4AE2-8F5A-683ED0713CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="eb87e36b-823b-4123-a7f7-e23d77fa1380"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" contentBits="0" removed="0"/>
+  <clbl:label id="{ea60d57e-af5b-4752-ac57-3e4f28ca11dc}" enabled="1" method="Standard" siteId="{36da45f1-dd2c-4d1f-af13-5abe46b99921}" removed="0"/>
 </clbl:labelList>
 </file>